--- a/day02/data/sample_2.xlsx
+++ b/day02/data/sample_2.xlsx
@@ -64,7 +64,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -175,13 +175,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +497,7 @@
     <col min="4" max="4" style="11" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -533,7 +533,7 @@
         <v>75992</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -547,7 +547,7 @@
         <v>115397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -561,7 +561,7 @@
         <v>129908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -575,7 +575,7 @@
         <v>191236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
